--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.445726333333333</v>
+        <v>0.9919543333333333</v>
       </c>
       <c r="H2">
-        <v>4.337179</v>
+        <v>2.975863</v>
       </c>
       <c r="I2">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="J2">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.803353666666666</v>
+        <v>0.3259846666666666</v>
       </c>
       <c r="N2">
-        <v>8.410060999999999</v>
+        <v>0.977954</v>
       </c>
       <c r="O2">
-        <v>0.03356888849358693</v>
+        <v>0.004039686607851542</v>
       </c>
       <c r="P2">
-        <v>0.03356888849358693</v>
+        <v>0.004039686607851542</v>
       </c>
       <c r="Q2">
-        <v>4.052882217546554</v>
+        <v>0.3233619027002222</v>
       </c>
       <c r="R2">
-        <v>36.475939957919</v>
+        <v>2.910257124302</v>
       </c>
       <c r="S2">
-        <v>0.0005184570216217889</v>
+        <v>3.559601948153701E-05</v>
       </c>
       <c r="T2">
-        <v>0.0005184570216217889</v>
+        <v>3.559601948153701E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.445726333333333</v>
+        <v>0.9919543333333333</v>
       </c>
       <c r="H3">
-        <v>4.337179</v>
+        <v>2.975863</v>
       </c>
       <c r="I3">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="J3">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>240.827774</v>
       </c>
       <c r="O3">
-        <v>0.961267782904875</v>
+        <v>0.9948000963506443</v>
       </c>
       <c r="P3">
-        <v>0.9612677829048749</v>
+        <v>0.9948000963506443</v>
       </c>
       <c r="Q3">
-        <v>116.0570182232829</v>
+        <v>79.63005133544021</v>
       </c>
       <c r="R3">
-        <v>1044.513164009546</v>
+        <v>716.670462018962</v>
       </c>
       <c r="S3">
-        <v>0.01484636680183953</v>
+        <v>0.008765760081761711</v>
       </c>
       <c r="T3">
-        <v>0.01484636680183953</v>
+        <v>0.008765760081761711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.445726333333333</v>
+        <v>0.9919543333333333</v>
       </c>
       <c r="H4">
-        <v>4.337179</v>
+        <v>2.975863</v>
       </c>
       <c r="I4">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="J4">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.431192</v>
+        <v>0.09362433333333332</v>
       </c>
       <c r="N4">
-        <v>1.293576</v>
+        <v>0.280873</v>
       </c>
       <c r="O4">
-        <v>0.005163328601538113</v>
+        <v>0.001160217041504085</v>
       </c>
       <c r="P4">
-        <v>0.005163328601538112</v>
+        <v>0.001160217041504085</v>
       </c>
       <c r="Q4">
-        <v>0.6233856291226666</v>
+        <v>0.09287106315544442</v>
       </c>
       <c r="R4">
-        <v>5.610470662104</v>
+        <v>0.835839568399</v>
       </c>
       <c r="S4">
-        <v>7.974538593732286E-05</v>
+        <v>1.022334463567585E-05</v>
       </c>
       <c r="T4">
-        <v>7.974538593732285E-05</v>
+        <v>1.022334463567585E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>226.658417</v>
       </c>
       <c r="I5">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="J5">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.803353666666666</v>
+        <v>0.3259846666666666</v>
       </c>
       <c r="N5">
-        <v>8.410060999999999</v>
+        <v>0.977954</v>
       </c>
       <c r="O5">
-        <v>0.03356888849358693</v>
+        <v>0.004039686607851542</v>
       </c>
       <c r="P5">
-        <v>0.03356888849358693</v>
+        <v>0.004039686607851542</v>
       </c>
       <c r="Q5">
-        <v>211.801234792604</v>
+        <v>24.62905617097977</v>
       </c>
       <c r="R5">
-        <v>1906.211113133437</v>
+        <v>221.661505538818</v>
       </c>
       <c r="S5">
-        <v>0.02709425822714014</v>
+        <v>0.002711192493467051</v>
       </c>
       <c r="T5">
-        <v>0.02709425822714014</v>
+        <v>0.002711192493467051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>226.658417</v>
       </c>
       <c r="I6">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="J6">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>240.827774</v>
       </c>
       <c r="O6">
-        <v>0.961267782904875</v>
+        <v>0.9948000963506443</v>
       </c>
       <c r="P6">
-        <v>0.9612677829048749</v>
+        <v>0.9948000963506443</v>
       </c>
       <c r="Q6">
         <v>6065.071336052639</v>
@@ -818,10 +818,10 @@
         <v>54585.64202447375</v>
       </c>
       <c r="S6">
-        <v>0.7758623744849589</v>
+        <v>0.6676494529263948</v>
       </c>
       <c r="T6">
-        <v>0.7758623744849588</v>
+        <v>0.6676494529263948</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>226.658417</v>
       </c>
       <c r="I7">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="J7">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.431192</v>
+        <v>0.09362433333333332</v>
       </c>
       <c r="N7">
-        <v>1.293576</v>
+        <v>0.280873</v>
       </c>
       <c r="O7">
-        <v>0.005163328601538113</v>
+        <v>0.001160217041504085</v>
       </c>
       <c r="P7">
-        <v>0.005163328601538112</v>
+        <v>0.001160217041504085</v>
       </c>
       <c r="Q7">
-        <v>32.57776538102133</v>
+        <v>7.073581062004554</v>
       </c>
       <c r="R7">
-        <v>293.199888429192</v>
+        <v>63.66222955804099</v>
       </c>
       <c r="S7">
-        <v>0.004167446844967122</v>
+        <v>0.0007786672678035685</v>
       </c>
       <c r="T7">
-        <v>0.004167446844967122</v>
+        <v>0.0007786672678035685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.60889166666666</v>
+        <v>36.02919333333333</v>
       </c>
       <c r="H8">
-        <v>49.82667499999999</v>
+        <v>108.08758</v>
       </c>
       <c r="I8">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="J8">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.803353666666666</v>
+        <v>0.3259846666666666</v>
       </c>
       <c r="N8">
-        <v>8.410060999999999</v>
+        <v>0.977954</v>
       </c>
       <c r="O8">
-        <v>0.03356888849358693</v>
+        <v>0.004039686607851542</v>
       </c>
       <c r="P8">
-        <v>0.03356888849358693</v>
+        <v>0.004039686607851542</v>
       </c>
       <c r="Q8">
-        <v>46.56059735301943</v>
+        <v>11.74496457903556</v>
       </c>
       <c r="R8">
-        <v>419.0453761771749</v>
+        <v>105.70468121132</v>
       </c>
       <c r="S8">
-        <v>0.005956173244825001</v>
+        <v>0.001292898094902954</v>
       </c>
       <c r="T8">
-        <v>0.005956173244825</v>
+        <v>0.001292898094902954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.60889166666666</v>
+        <v>36.02919333333333</v>
       </c>
       <c r="H9">
-        <v>49.82667499999999</v>
+        <v>108.08758</v>
       </c>
       <c r="I9">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="J9">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>240.827774</v>
       </c>
       <c r="O9">
-        <v>0.961267782904875</v>
+        <v>0.9948000963506443</v>
       </c>
       <c r="P9">
-        <v>0.9612677829048749</v>
+        <v>0.9948000963506443</v>
       </c>
       <c r="Q9">
-        <v>1333.294136230161</v>
+        <v>2892.276809827435</v>
       </c>
       <c r="R9">
-        <v>11999.64722607145</v>
+        <v>26030.49128844692</v>
       </c>
       <c r="S9">
-        <v>0.1705590416180765</v>
+        <v>0.3183848833424878</v>
       </c>
       <c r="T9">
-        <v>0.1705590416180765</v>
+        <v>0.3183848833424878</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.60889166666666</v>
+        <v>36.02919333333333</v>
       </c>
       <c r="H10">
-        <v>49.82667499999999</v>
+        <v>108.08758</v>
       </c>
       <c r="I10">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="J10">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.431192</v>
+        <v>0.09362433333333332</v>
       </c>
       <c r="N10">
-        <v>1.293576</v>
+        <v>0.280873</v>
       </c>
       <c r="O10">
-        <v>0.005163328601538113</v>
+        <v>0.001160217041504085</v>
       </c>
       <c r="P10">
-        <v>0.005163328601538112</v>
+        <v>0.001160217041504085</v>
       </c>
       <c r="Q10">
-        <v>7.161621215533333</v>
+        <v>3.373209206371111</v>
       </c>
       <c r="R10">
-        <v>64.4545909398</v>
+        <v>30.35888285734</v>
       </c>
       <c r="S10">
-        <v>0.0009161363706336669</v>
+        <v>0.000371326429064841</v>
       </c>
       <c r="T10">
-        <v>0.0009161363706336666</v>
+        <v>0.000371326429064841</v>
       </c>
     </row>
   </sheetData>
